--- a/SchedulingData/dynamic14/pso/scheduling1_14.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.16</v>
+        <v>38.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.744</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38.2</v>
       </c>
       <c r="D3" t="n">
-        <v>68.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>26.36</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>59.44</v>
+        <v>47.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26.256</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>58.4</v>
+        <v>72.3</v>
       </c>
       <c r="E5" t="n">
-        <v>25.84</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68.3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>135.1</v>
+        <v>50.68</v>
       </c>
       <c r="E6" t="n">
-        <v>23.28</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="7">
@@ -565,32 +565,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59.44</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>127.82</v>
+        <v>88.98</v>
       </c>
       <c r="E7" t="n">
-        <v>23.008</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59.16</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>119.92</v>
+        <v>63.74</v>
       </c>
       <c r="E8" t="n">
-        <v>23.268</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>127.82</v>
+        <v>88.98</v>
       </c>
       <c r="D9" t="n">
-        <v>210.1</v>
+        <v>142.18</v>
       </c>
       <c r="E9" t="n">
-        <v>18.9</v>
+        <v>24.552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58.4</v>
+        <v>72.3</v>
       </c>
       <c r="D10" t="n">
-        <v>119.7</v>
+        <v>120.76</v>
       </c>
       <c r="E10" t="n">
-        <v>23.8</v>
+        <v>23.704</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50.68</v>
       </c>
       <c r="D11" t="n">
-        <v>61.6</v>
+        <v>116.64</v>
       </c>
       <c r="E11" t="n">
-        <v>25.52</v>
+        <v>23.136</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>210.1</v>
+        <v>142.18</v>
       </c>
       <c r="D12" t="n">
-        <v>274.4</v>
+        <v>183.18</v>
       </c>
       <c r="E12" t="n">
-        <v>14.58</v>
+        <v>21.592</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>135.1</v>
+        <v>120.76</v>
       </c>
       <c r="D13" t="n">
-        <v>173.74</v>
+        <v>166.88</v>
       </c>
       <c r="E13" t="n">
-        <v>20.056</v>
+        <v>20.712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>166.88</v>
       </c>
       <c r="D14" t="n">
-        <v>44.16</v>
+        <v>207.22</v>
       </c>
       <c r="E14" t="n">
-        <v>27.264</v>
+        <v>17.808</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>173.74</v>
+        <v>63.74</v>
       </c>
       <c r="D15" t="n">
-        <v>230.78</v>
+        <v>115.36</v>
       </c>
       <c r="E15" t="n">
-        <v>16.472</v>
+        <v>22.744</v>
       </c>
     </row>
     <row r="16">
@@ -732,93 +732,93 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>119.92</v>
+        <v>207.22</v>
       </c>
       <c r="D16" t="n">
-        <v>184.86</v>
+        <v>272.34</v>
       </c>
       <c r="E16" t="n">
-        <v>20.364</v>
+        <v>14.896</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>184.86</v>
+        <v>116.64</v>
       </c>
       <c r="D17" t="n">
-        <v>241.42</v>
+        <v>180.18</v>
       </c>
       <c r="E17" t="n">
-        <v>17.348</v>
+        <v>19.392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>230.78</v>
+        <v>180.18</v>
       </c>
       <c r="D18" t="n">
-        <v>284.34</v>
+        <v>246.54</v>
       </c>
       <c r="E18" t="n">
-        <v>13.736</v>
+        <v>16.376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>44.16</v>
+        <v>246.54</v>
       </c>
       <c r="D19" t="n">
-        <v>89.26000000000001</v>
+        <v>320.96</v>
       </c>
       <c r="E19" t="n">
-        <v>23.884</v>
+        <v>12.064</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>89.26000000000001</v>
+        <v>320.96</v>
       </c>
       <c r="D20" t="n">
-        <v>167.42</v>
+        <v>377.9</v>
       </c>
       <c r="E20" t="n">
-        <v>20.188</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="21">
@@ -827,112 +827,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>284.34</v>
+        <v>115.36</v>
       </c>
       <c r="D21" t="n">
-        <v>333.22</v>
+        <v>181.98</v>
       </c>
       <c r="E21" t="n">
-        <v>11.448</v>
+        <v>18.712</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>333.22</v>
+        <v>47.8</v>
       </c>
       <c r="D22" t="n">
-        <v>401.48</v>
+        <v>117.4</v>
       </c>
       <c r="E22" t="n">
-        <v>8.231999999999999</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>167.42</v>
+        <v>117.4</v>
       </c>
       <c r="D23" t="n">
-        <v>219.58</v>
+        <v>168.9</v>
       </c>
       <c r="E23" t="n">
-        <v>17.592</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>241.42</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>315.06</v>
+        <v>151</v>
       </c>
       <c r="E24" t="n">
-        <v>13.604</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>219.58</v>
+        <v>183.18</v>
       </c>
       <c r="D25" t="n">
-        <v>270.48</v>
+        <v>260.98</v>
       </c>
       <c r="E25" t="n">
-        <v>13.632</v>
+        <v>16.912</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>61.6</v>
+        <v>168.9</v>
       </c>
       <c r="D26" t="n">
-        <v>146.5</v>
+        <v>223.68</v>
       </c>
       <c r="E26" t="n">
-        <v>20.66</v>
+        <v>15.232</v>
       </c>
     </row>
     <row r="27">
@@ -941,60 +941,60 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>146.5</v>
+        <v>377.9</v>
       </c>
       <c r="D27" t="n">
-        <v>198.12</v>
+        <v>419.26</v>
       </c>
       <c r="E27" t="n">
-        <v>16.628</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>315.06</v>
+        <v>260.98</v>
       </c>
       <c r="D28" t="n">
-        <v>356.46</v>
+        <v>324.52</v>
       </c>
       <c r="E28" t="n">
-        <v>11.084</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>198.12</v>
+        <v>223.68</v>
       </c>
       <c r="D29" t="n">
-        <v>276.22</v>
+        <v>300.2</v>
       </c>
       <c r="E29" t="n">
-        <v>11.948</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,51 +1002,51 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>356.46</v>
+        <v>151</v>
       </c>
       <c r="D30" t="n">
-        <v>430.76</v>
+        <v>220.4</v>
       </c>
       <c r="E30" t="n">
-        <v>7.244</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>119.7</v>
+        <v>220.4</v>
       </c>
       <c r="D31" t="n">
-        <v>192.32</v>
+        <v>273.9</v>
       </c>
       <c r="E31" t="n">
-        <v>21.148</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>274.4</v>
+        <v>181.98</v>
       </c>
       <c r="D32" t="n">
-        <v>324.28</v>
+        <v>225.84</v>
       </c>
       <c r="E32" t="n">
-        <v>10.732</v>
+        <v>15.456</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>276.22</v>
+        <v>419.26</v>
       </c>
       <c r="D33" t="n">
-        <v>319.8</v>
+        <v>483.34</v>
       </c>
       <c r="E33" t="n">
-        <v>9.220000000000001</v>
+        <v>3.696</v>
       </c>
     </row>
     <row r="34">
@@ -1074,131 +1074,131 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>401.48</v>
+        <v>225.84</v>
       </c>
       <c r="D34" t="n">
-        <v>456.56</v>
+        <v>308.22</v>
       </c>
       <c r="E34" t="n">
-        <v>4.844</v>
+        <v>11.348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>192.32</v>
+        <v>308.22</v>
       </c>
       <c r="D35" t="n">
-        <v>248.44</v>
+        <v>361.38</v>
       </c>
       <c r="E35" t="n">
-        <v>18.156</v>
+        <v>7.652</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>324.28</v>
+        <v>361.38</v>
       </c>
       <c r="D36" t="n">
-        <v>386.98</v>
+        <v>437.08</v>
       </c>
       <c r="E36" t="n">
-        <v>8.532</v>
+        <v>3.692</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>386.98</v>
+        <v>437.08</v>
       </c>
       <c r="D37" t="n">
-        <v>461.88</v>
+        <v>499.58</v>
       </c>
       <c r="E37" t="n">
-        <v>5.112</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>248.44</v>
+        <v>499.58</v>
       </c>
       <c r="D38" t="n">
-        <v>304.34</v>
+        <v>576.38</v>
       </c>
       <c r="E38" t="n">
-        <v>15.196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>319.8</v>
+        <v>272.34</v>
       </c>
       <c r="D39" t="n">
-        <v>386.32</v>
+        <v>317.84</v>
       </c>
       <c r="E39" t="n">
-        <v>5.188</v>
+        <v>11.476</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>461.88</v>
+        <v>300.2</v>
       </c>
       <c r="D40" t="n">
-        <v>509.48</v>
+        <v>367.92</v>
       </c>
       <c r="E40" t="n">
-        <v>1.992</v>
+        <v>8.548</v>
       </c>
     </row>
     <row r="41">
@@ -1207,207 +1207,207 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>509.48</v>
+        <v>324.52</v>
       </c>
       <c r="D41" t="n">
-        <v>577.5</v>
+        <v>395.62</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>11.128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>304.34</v>
+        <v>317.84</v>
       </c>
       <c r="D42" t="n">
-        <v>367.48</v>
+        <v>381.1</v>
       </c>
       <c r="E42" t="n">
-        <v>11.972</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>270.48</v>
+        <v>367.92</v>
       </c>
       <c r="D43" t="n">
-        <v>329.8</v>
+        <v>428.92</v>
       </c>
       <c r="E43" t="n">
-        <v>9.32</v>
+        <v>4.068</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>367.48</v>
+        <v>381.1</v>
       </c>
       <c r="D44" t="n">
-        <v>434.68</v>
+        <v>419.68</v>
       </c>
       <c r="E44" t="n">
-        <v>7.892</v>
+        <v>6.012</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>456.56</v>
+        <v>483.34</v>
       </c>
       <c r="D45" t="n">
-        <v>514.86</v>
+        <v>552.85</v>
       </c>
       <c r="E45" t="n">
-        <v>1.124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>514.86</v>
+        <v>552.85</v>
       </c>
       <c r="D46" t="n">
-        <v>604.11</v>
+        <v>615.45</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>386.32</v>
+        <v>273.9</v>
       </c>
       <c r="D47" t="n">
-        <v>446.34</v>
+        <v>345.1</v>
       </c>
       <c r="E47" t="n">
-        <v>2.276</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>434.68</v>
+        <v>345.1</v>
       </c>
       <c r="D48" t="n">
-        <v>525.58</v>
+        <v>413.5</v>
       </c>
       <c r="E48" t="n">
-        <v>3.392</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>430.76</v>
+        <v>395.62</v>
       </c>
       <c r="D49" t="n">
-        <v>476.82</v>
+        <v>480.02</v>
       </c>
       <c r="E49" t="n">
-        <v>4.748</v>
+        <v>6.268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>446.34</v>
+        <v>428.92</v>
       </c>
       <c r="D50" t="n">
-        <v>513.6900000000001</v>
+        <v>467.56</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>513.6900000000001</v>
+        <v>467.56</v>
       </c>
       <c r="D51" t="n">
-        <v>549.45</v>
+        <v>552.67</v>
       </c>
       <c r="E51" t="n">
-        <v>27.624</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>476.82</v>
+        <v>419.68</v>
       </c>
       <c r="D52" t="n">
-        <v>533.34</v>
+        <v>469.44</v>
       </c>
       <c r="E52" t="n">
-        <v>0.716</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="53">
@@ -1435,55 +1435,74 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>533.34</v>
+        <v>469.44</v>
       </c>
       <c r="D53" t="n">
-        <v>633.41</v>
+        <v>521.5</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>329.8</v>
+        <v>521.5</v>
       </c>
       <c r="D54" t="n">
-        <v>406.4</v>
+        <v>601.12</v>
       </c>
       <c r="E54" t="n">
-        <v>5.24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>577.5</v>
+        <v>413.5</v>
       </c>
       <c r="D55" t="n">
-        <v>617</v>
+        <v>462.16</v>
       </c>
       <c r="E55" t="n">
-        <v>27.24</v>
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>462.16</v>
+      </c>
+      <c r="D56" t="n">
+        <v>540.39</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
